--- a/biology/Botanique/Burmannia_(plante)/Burmannia_(plante).xlsx
+++ b/biology/Botanique/Burmannia_(plante)/Burmannia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Burmannia est un genre de plantes de la famille des Burmanniaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (17 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (17 septembre 2017) :
 Burmannia alba Mart.
 Burmannia aprica (Malme) Jonker
 Burmannia australis Malme
@@ -571,15 +585,15 @@
 Burmannia tisserantii Schltr.
 Burmannia vaupesiana Benthem &amp; Maas
 Burmannia wallichii (Miers) Hook.f.
-Selon GRIN            (17 septembre 2017)[3] :
+Selon GRIN            (17 septembre 2017) :
 Burmannia bicolor Mart.
 Burmannia disticha L.
-Selon ITIS      (17 septembre 2017)[4] :
+Selon ITIS      (17 septembre 2017) :
 Burmannia biflora L.
 Burmannia capitata (J.F. Gmel.) Mart.
 Burmannia flava Mart.
 Burmannia ledermannii Jonker
-Selon World Checklist of Selected Plant Families (WCSP)  (17 septembre 2017)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (17 septembre 2017) :
 Burmannia alba Mart. (1824)
 Burmannia aprica (Malme) Jonker (1938)
 Burmannia australis Malme, Bih. Kongl. Svenska Vetensk.-Akad. Handl. 22(3 (1896)
@@ -639,7 +653,7 @@
 Burmannia unguiculata Aver. (2005)
 Burmannia vaupesiana Benthem &amp; Maas (1981)
 Burmannia wallichii (Miers) Hook.f. (1888)
-Selon NCBI  (17 septembre 2017)[6] :
+Selon NCBI  (17 septembre 2017) :
 Burmannia alba
 Burmannia bengkuluensis
 Burmannia bicolor
@@ -664,7 +678,7 @@
 Burmannia sphagnoides
 Burmannia stuebelii
 Burmannia wallichii
-Selon The Plant List            (17 septembre 2017)[7] :
+Selon The Plant List            (17 septembre 2017) :
 Burmannia alba Mart.
 Burmannia aprica (Malme) Jonker
 Burmannia australis Malme
@@ -721,7 +735,7 @@
 Burmannia tisserantii Schltr.
 Burmannia vaupesiana Benthem &amp; Maas
 Burmannia wallichii (Miers) Hook.f.
-Selon Tropicos                                           (17 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Burmannia alba Mart.
 Burmannia amazonica Schltr.
 Burmannia aprica (Malme) Jonker
